--- a/data/obce1.xlsx
+++ b/data/obce1.xlsx
@@ -17370,14 +17370,14 @@
   </sheetPr>
   <dimension ref="A1:E2928"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1761" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1774" activeCellId="0" sqref="I1774"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
   </cols>
   <sheetData>
@@ -17412,7 +17412,7 @@
         <v>48.3013474420999</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17599,7 +17599,7 @@
         <v>48.2682971304908</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17701,7 +17701,7 @@
         <v>48.355316525954</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18126,7 +18126,7 @@
         <v>48.2857671790639</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18534,7 +18534,7 @@
         <v>48.2431137516709</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18585,7 +18585,7 @@
         <v>48.3761088239147</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19316,7 +19316,7 @@
         <v>48.0156721637666</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19452,7 +19452,7 @@
         <v>47.8581761199382</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19520,7 +19520,7 @@
         <v>47.8760188367789</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19622,7 +19622,7 @@
         <v>48.071751700434</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19877,7 +19877,7 @@
         <v>48.00335858433</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20013,7 +20013,7 @@
         <v>48.0199549805583</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20047,7 +20047,7 @@
         <v>47.9656546613546</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20200,7 +20200,7 @@
         <v>48.1311830237187</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20608,7 +20608,7 @@
         <v>48.0048266953552</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21560,7 +21560,7 @@
         <v>48.0505154090889</v>
       </c>
       <c r="E246" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21662,7 +21662,7 @@
         <v>48.045876047032</v>
       </c>
       <c r="E252" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21764,7 +21764,7 @@
         <v>47.917340633069</v>
       </c>
       <c r="E258" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21883,7 +21883,7 @@
         <v>47.8439636859587</v>
       </c>
       <c r="E265" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22172,7 +22172,7 @@
         <v>48.1528278455863</v>
       </c>
       <c r="E282" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22342,7 +22342,7 @@
         <v>48.5997117913178</v>
       </c>
       <c r="E292" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22478,7 +22478,7 @@
         <v>48.5931966427305</v>
       </c>
       <c r="E300" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22529,7 +22529,7 @@
         <v>48.5553518533991</v>
       </c>
       <c r="E303" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22631,7 +22631,7 @@
         <v>48.4134670313042</v>
       </c>
       <c r="E309" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22784,7 +22784,7 @@
         <v>49.2539718000442</v>
       </c>
       <c r="E318" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23124,7 +23124,7 @@
         <v>49.254617583444</v>
       </c>
       <c r="E338" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23141,7 +23141,7 @@
         <v>49.1307448422712</v>
       </c>
       <c r="E339" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23158,7 +23158,7 @@
         <v>49.2021878812342</v>
       </c>
       <c r="E340" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23192,7 +23192,7 @@
         <v>49.3218454859662</v>
       </c>
       <c r="E342" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24025,7 +24025,7 @@
         <v>47.7967243871065</v>
       </c>
       <c r="E391" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24127,7 +24127,7 @@
         <v>48.1998268670727</v>
       </c>
       <c r="E397" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24246,7 +24246,7 @@
         <v>48.0929035229576</v>
       </c>
       <c r="E404" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24297,7 +24297,7 @@
         <v>48.1142270714181</v>
       </c>
       <c r="E407" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24552,7 +24552,7 @@
         <v>48.2796932419017</v>
       </c>
       <c r="E422" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24637,7 +24637,7 @@
         <v>48.2879750333397</v>
       </c>
       <c r="E427" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24858,7 +24858,7 @@
         <v>48.1551723841898</v>
       </c>
       <c r="E440" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24977,7 +24977,7 @@
         <v>48.6784258659965</v>
       </c>
       <c r="E447" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25079,7 +25079,7 @@
         <v>48.6952843480534</v>
       </c>
       <c r="E453" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25385,7 +25385,7 @@
         <v>48.7099617397586</v>
       </c>
       <c r="E471" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25555,7 +25555,7 @@
         <v>48.7507072540632</v>
       </c>
       <c r="E481" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26014,7 +26014,7 @@
         <v>48.6525282918622</v>
       </c>
       <c r="E508" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26167,7 +26167,7 @@
         <v>48.5770104690185</v>
       </c>
       <c r="E517" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26371,7 +26371,7 @@
         <v>48.6659934906505</v>
       </c>
       <c r="E529" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26507,7 +26507,7 @@
         <v>48.6361967708772</v>
       </c>
       <c r="E537" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26592,7 +26592,7 @@
         <v>48.660568011279</v>
       </c>
       <c r="E542" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26728,7 +26728,7 @@
         <v>48.6709584626415</v>
       </c>
       <c r="E550" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27034,7 +27034,7 @@
         <v>48.662458938477</v>
       </c>
       <c r="E568" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27221,7 +27221,7 @@
         <v>48.8968066708312</v>
       </c>
       <c r="E579" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27476,7 +27476,7 @@
         <v>48.6565731055551</v>
       </c>
       <c r="E594" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27527,7 +27527,7 @@
         <v>49.01669268491</v>
       </c>
       <c r="E597" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27544,7 +27544,7 @@
         <v>48.9356916069859</v>
       </c>
       <c r="E598" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27663,7 +27663,7 @@
         <v>48.7487517282743</v>
       </c>
       <c r="E605" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27748,7 +27748,7 @@
         <v>48.8162109002481</v>
       </c>
       <c r="E610" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27833,7 +27833,7 @@
         <v>48.8431811143559</v>
       </c>
       <c r="E615" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27867,7 +27867,7 @@
         <v>48.9769861039856</v>
       </c>
       <c r="E617" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27935,7 +27935,7 @@
         <v>48.7566286449356</v>
       </c>
       <c r="E621" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28207,7 +28207,7 @@
         <v>48.829937948651</v>
       </c>
       <c r="E637" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28275,7 +28275,7 @@
         <v>48.907548085649</v>
       </c>
       <c r="E641" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28360,7 +28360,7 @@
         <v>48.3811859346342</v>
       </c>
       <c r="E646" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28751,7 +28751,7 @@
         <v>48.4252159499722</v>
       </c>
       <c r="E669" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28785,7 +28785,7 @@
         <v>48.5181574041544</v>
       </c>
       <c r="E671" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28887,7 +28887,7 @@
         <v>48.5208443494641</v>
       </c>
       <c r="E677" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29108,7 +29108,7 @@
         <v>48.2024498573739</v>
       </c>
       <c r="E690" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29159,7 +29159,7 @@
         <v>48.3626870768233</v>
       </c>
       <c r="E693" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29295,7 +29295,7 @@
         <v>48.1883407299528</v>
       </c>
       <c r="E701" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29397,7 +29397,7 @@
         <v>48.4468348081601</v>
       </c>
       <c r="E707" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29414,7 +29414,7 @@
         <v>48.4056548906234</v>
       </c>
       <c r="E708" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29465,7 +29465,7 @@
         <v>48.3196788427829</v>
       </c>
       <c r="E711" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29482,7 +29482,7 @@
         <v>48.4386722073711</v>
       </c>
       <c r="E712" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29499,7 +29499,7 @@
         <v>48.1539581475237</v>
       </c>
       <c r="E713" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29618,7 +29618,7 @@
         <v>48.3158727333949</v>
       </c>
       <c r="E720" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29669,7 +29669,7 @@
         <v>48.0982543209707</v>
       </c>
       <c r="E723" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29686,7 +29686,7 @@
         <v>48.2353919765602</v>
       </c>
       <c r="E724" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29720,7 +29720,7 @@
         <v>48.2807615374644</v>
       </c>
       <c r="E726" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29822,7 +29822,7 @@
         <v>48.2261649062081</v>
       </c>
       <c r="E732" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29907,7 +29907,7 @@
         <v>48.3294828389639</v>
       </c>
       <c r="E737" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29924,7 +29924,7 @@
         <v>48.3764438346884</v>
       </c>
       <c r="E738" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29958,7 +29958,7 @@
         <v>48.7366112931384</v>
       </c>
       <c r="E740" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30060,7 +30060,7 @@
         <v>48.8198077230118</v>
       </c>
       <c r="E746" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30094,7 +30094,7 @@
         <v>48.7143566654035</v>
       </c>
       <c r="E748" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30893,7 +30893,7 @@
         <v>48.7620145651466</v>
       </c>
       <c r="E795" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31063,7 +31063,7 @@
         <v>49.4431359056841</v>
       </c>
       <c r="E805" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31080,7 +31080,7 @@
         <v>49.4983004748051</v>
       </c>
       <c r="E806" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31216,7 +31216,7 @@
         <v>49.3902364158103</v>
       </c>
       <c r="E814" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31420,7 +31420,7 @@
         <v>49.3108549527093</v>
       </c>
       <c r="E826" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31556,7 +31556,7 @@
         <v>49.3569273462038</v>
       </c>
       <c r="E834" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31658,7 +31658,7 @@
         <v>49.3898664454111</v>
       </c>
       <c r="E840" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32117,7 +32117,7 @@
         <v>49.3210250009876</v>
       </c>
       <c r="E867" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32491,7 +32491,7 @@
         <v>49.3920153099924</v>
       </c>
       <c r="E889" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32644,7 +32644,7 @@
         <v>49.2853584353791</v>
       </c>
       <c r="E898" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32712,7 +32712,7 @@
         <v>49.0826193639813</v>
       </c>
       <c r="E902" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32950,7 +32950,7 @@
         <v>49.1190513964119</v>
       </c>
       <c r="E916" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33052,7 +33052,7 @@
         <v>49.1821345225448</v>
       </c>
       <c r="E922" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33290,7 +33290,7 @@
         <v>49.0532834459105</v>
       </c>
       <c r="E936" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33766,7 +33766,7 @@
         <v>49.1287561279662</v>
       </c>
       <c r="E964" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33987,7 +33987,7 @@
         <v>48.3321077864961</v>
       </c>
       <c r="E977" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35143,7 +35143,7 @@
         <v>49.0849874532516</v>
       </c>
       <c r="E1045" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35704,7 +35704,7 @@
         <v>48.9017566949795</v>
       </c>
       <c r="E1078" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35755,7 +35755,7 @@
         <v>48.9658652795844</v>
       </c>
       <c r="E1081" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35823,7 +35823,7 @@
         <v>49.0013401853504</v>
       </c>
       <c r="E1085" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1086" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36010,7 +36010,7 @@
         <v>49.1220793996272</v>
       </c>
       <c r="E1096" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1097" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36282,7 +36282,7 @@
         <v>49.118562762698</v>
       </c>
       <c r="E1112" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36435,7 +36435,7 @@
         <v>48.9517329184</v>
       </c>
       <c r="E1121" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36486,7 +36486,7 @@
         <v>48.9423071922735</v>
       </c>
       <c r="E1124" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36520,7 +36520,7 @@
         <v>48.9801859739169</v>
       </c>
       <c r="E1126" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36758,7 +36758,7 @@
         <v>48.9307481199015</v>
       </c>
       <c r="E1140" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36911,7 +36911,7 @@
         <v>49.1712780953796</v>
       </c>
       <c r="E1149" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37098,7 +37098,7 @@
         <v>48.7607004769715</v>
       </c>
       <c r="E1160" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37251,7 +37251,7 @@
         <v>48.7181731697182</v>
       </c>
       <c r="E1169" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37268,7 +37268,7 @@
         <v>48.7018565029838</v>
       </c>
       <c r="E1170" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37353,7 +37353,7 @@
         <v>48.6571950008913</v>
       </c>
       <c r="E1175" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37370,7 +37370,7 @@
         <v>48.8213191986454</v>
       </c>
       <c r="E1176" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37523,7 +37523,7 @@
         <v>48.8595758371278</v>
       </c>
       <c r="E1185" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37727,7 +37727,7 @@
         <v>48.8443683692968</v>
       </c>
       <c r="E1197" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37778,7 +37778,7 @@
         <v>48.765822916598</v>
       </c>
       <c r="E1200" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37948,7 +37948,7 @@
         <v>48.3795760606261</v>
       </c>
       <c r="E1210" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38339,7 +38339,7 @@
         <v>48.4736459355679</v>
       </c>
       <c r="E1233" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40022,7 +40022,7 @@
         <v>48.2127449080207</v>
       </c>
       <c r="E1332" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40209,7 +40209,7 @@
         <v>48.2470590243308</v>
       </c>
       <c r="E1343" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41178,7 +41178,7 @@
         <v>48.5740280518365</v>
       </c>
       <c r="E1400" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41246,7 +41246,7 @@
         <v>48.4610287302472</v>
       </c>
       <c r="E1404" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42062,7 +42062,7 @@
         <v>48.6185002552826</v>
       </c>
       <c r="E1452" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42266,7 +42266,7 @@
         <v>49.2216066987911</v>
       </c>
       <c r="E1464" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42657,7 +42657,7 @@
         <v>49.1733276576309</v>
       </c>
       <c r="E1487" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42725,7 +42725,7 @@
         <v>48.5542596827524</v>
       </c>
       <c r="E1491" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43745,7 +43745,7 @@
         <v>48.6257106458333</v>
       </c>
       <c r="E1551" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44051,7 +44051,7 @@
         <v>49.3036573798498</v>
       </c>
       <c r="E1569" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44323,7 +44323,7 @@
         <v>49.119017826016</v>
       </c>
       <c r="E1585" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44374,7 +44374,7 @@
         <v>49.3010179639569</v>
       </c>
       <c r="E1588" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45411,7 +45411,7 @@
         <v>49.3421807074714</v>
       </c>
       <c r="E1649" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45666,7 +45666,7 @@
         <v>48.9393576107224</v>
       </c>
       <c r="E1664" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46907,7 +46907,7 @@
         <v>48.9909873299719</v>
       </c>
       <c r="E1737" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47179,7 +47179,7 @@
         <v>49.0131526024804</v>
       </c>
       <c r="E1753" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47417,7 +47417,7 @@
         <v>48.7102133813172</v>
       </c>
       <c r="E1767" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47604,7 +47604,7 @@
         <v>48.5859445125111</v>
       </c>
       <c r="E1778" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47723,7 +47723,7 @@
         <v>48.8078188230456</v>
       </c>
       <c r="E1785" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48216,7 +48216,7 @@
         <v>48.604411761657</v>
       </c>
       <c r="E1814" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48675,7 +48675,7 @@
         <v>48.567353097443</v>
       </c>
       <c r="E1841" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49100,7 +49100,7 @@
         <v>48.7547495896507</v>
       </c>
       <c r="E1866" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49967,7 +49967,7 @@
         <v>48.818684829159</v>
       </c>
       <c r="E1917" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50086,7 +50086,7 @@
         <v>48.6187481872854</v>
       </c>
       <c r="E1924" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50443,7 +50443,7 @@
         <v>48.7443373619436</v>
       </c>
       <c r="E1945" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50953,7 +50953,7 @@
         <v>49.0635510422532</v>
       </c>
       <c r="E1975" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51259,7 +51259,7 @@
         <v>49.150031765816</v>
       </c>
       <c r="E1993" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51327,7 +51327,7 @@
         <v>49.2507617077895</v>
       </c>
       <c r="E1997" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51582,7 +51582,7 @@
         <v>49.1976278497378</v>
       </c>
       <c r="E2012" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51735,7 +51735,7 @@
         <v>49.0819881627625</v>
       </c>
       <c r="E2021" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52364,7 +52364,7 @@
         <v>48.9272221945061</v>
       </c>
       <c r="E2058" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52738,7 +52738,7 @@
         <v>48.8947062560646</v>
       </c>
       <c r="E2080" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2081" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53095,7 +53095,7 @@
         <v>48.9602656611037</v>
       </c>
       <c r="E2101" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53146,7 +53146,7 @@
         <v>49.1139247746703</v>
       </c>
       <c r="E2104" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53265,7 +53265,7 @@
         <v>49.1878359355169</v>
       </c>
       <c r="E2111" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53639,7 +53639,7 @@
         <v>48.9475451858398</v>
       </c>
       <c r="E2133" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53741,7 +53741,7 @@
         <v>48.6916788921471</v>
       </c>
       <c r="E2139" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53775,7 +53775,7 @@
         <v>48.7226095805986</v>
       </c>
       <c r="E2141" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54727,7 +54727,7 @@
         <v>48.699137881305</v>
       </c>
       <c r="E2197" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54948,7 +54948,7 @@
         <v>48.7222657303755</v>
       </c>
       <c r="E2210" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55067,7 +55067,7 @@
         <v>48.9085320940812</v>
       </c>
       <c r="E2217" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55203,7 +55203,7 @@
         <v>48.9578610719047</v>
       </c>
       <c r="E2225" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55322,7 +55322,7 @@
         <v>48.8322887975385</v>
       </c>
       <c r="E2232" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55475,7 +55475,7 @@
         <v>48.9510992291662</v>
       </c>
       <c r="E2241" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55560,7 +55560,7 @@
         <v>48.9833875001422</v>
       </c>
       <c r="E2246" s="0" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55577,7 +55577,7 @@
         <v>49.3159316078933</v>
       </c>
       <c r="E2247" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56036,7 +56036,7 @@
         <v>48.6273180585436</v>
       </c>
       <c r="E2274" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56716,7 +56716,7 @@
         <v>49.2215870001342</v>
       </c>
       <c r="E2314" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57277,7 +57277,7 @@
         <v>49.3447203096307</v>
       </c>
       <c r="E2347" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57515,7 +57515,7 @@
         <v>49.3328929274729</v>
       </c>
       <c r="E2361" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58756,7 +58756,7 @@
         <v>48.4049248283834</v>
       </c>
       <c r="E2434" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58841,7 +58841,7 @@
         <v>48.151510686427</v>
       </c>
       <c r="E2439" s="0" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59810,7 +59810,7 @@
         <v>48.9689426905614</v>
       </c>
       <c r="E2496" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60031,7 +60031,7 @@
         <v>48.9737161562652</v>
       </c>
       <c r="E2509" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60065,7 +60065,7 @@
         <v>48.1480425658311</v>
       </c>
       <c r="E2511" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60082,7 +60082,7 @@
         <v>48.1524586482618</v>
       </c>
       <c r="E2512" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60099,7 +60099,7 @@
         <v>48.1894108778205</v>
       </c>
       <c r="E2513" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60116,7 +60116,7 @@
         <v>48.2152091497211</v>
       </c>
       <c r="E2514" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60167,7 +60167,7 @@
         <v>48.1875203817129</v>
       </c>
       <c r="E2517" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60184,7 +60184,7 @@
         <v>48.1562614730681</v>
       </c>
       <c r="E2518" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60286,7 +60286,7 @@
         <v>48.1160049832594</v>
       </c>
       <c r="E2524" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60320,7 +60320,7 @@
         <v>48.7250757585595</v>
       </c>
       <c r="E2526" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60779,7 +60779,7 @@
         <v>48.8440899096795</v>
       </c>
       <c r="E2553" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61034,7 +61034,7 @@
         <v>48.9045021811823</v>
       </c>
       <c r="E2568" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61068,7 +61068,7 @@
         <v>48.9556208654717</v>
       </c>
       <c r="E2570" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61544,7 +61544,7 @@
         <v>49.0024610507445</v>
       </c>
       <c r="E2598" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62343,7 +62343,7 @@
         <v>48.8776076267802</v>
       </c>
       <c r="E2645" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62377,7 +62377,7 @@
         <v>48.8228822665127</v>
       </c>
       <c r="E2647" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62666,7 +62666,7 @@
         <v>48.0768749834068</v>
       </c>
       <c r="E2664" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63329,7 +63329,7 @@
         <v>48.310505550484</v>
       </c>
       <c r="E2703" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -64128,7 +64128,7 @@
         <v>48.4679003088231</v>
       </c>
       <c r="E2750" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -64502,7 +64502,7 @@
         <v>49.1291317495909</v>
       </c>
       <c r="E2772" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -65709,7 +65709,7 @@
         <v>49.1743726560395</v>
       </c>
       <c r="E2843" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -65760,7 +65760,7 @@
         <v>48.7125733794452</v>
       </c>
       <c r="E2846" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -65913,7 +65913,7 @@
         <v>48.3666399092038</v>
       </c>
       <c r="E2855" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -66423,7 +66423,7 @@
         <v>48.5793795181686</v>
       </c>
       <c r="E2885" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -66984,7 +66984,7 @@
         <v>48.654281997436</v>
       </c>
       <c r="E2918" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -67086,7 +67086,7 @@
         <v>48.7715754492553</v>
       </c>
       <c r="E2924" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/obce1.xlsx
+++ b/data/obce1.xlsx
@@ -17370,8 +17370,8 @@
   </sheetPr>
   <dimension ref="A1:E2928"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1761" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1774" activeCellId="0" sqref="I1774"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2504" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2527" activeCellId="0" sqref="E2527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -60286,7 +60286,7 @@
         <v>48.1160049832594</v>
       </c>
       <c r="E2524" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
